--- a/array_to_sheet_result.xlsx
+++ b/array_to_sheet_result.xlsx
@@ -454,7 +454,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>고무망치</v>
+        <v>작은 망치</v>
       </c>
       <c r="B3" t="str">
         <v>3</v>
@@ -8953,7 +8953,7 @@
         <v>빵판(blue)</v>
       </c>
       <c r="B369" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C369" t="str">
         <v>전장</v>
@@ -8962,10 +8962,10 @@
         <v>기판</v>
       </c>
       <c r="E369" t="str">
-        <v>B05</v>
-      </c>
-      <c r="F369">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="F369" t="str">
+        <v>5</v>
       </c>
       <c r="G369">
         <v>367</v>
